--- a/templates/recoveryrecieveakt.xlsx
+++ b/templates/recoveryrecieveakt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test_ps\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,12 +166,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,50 +252,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -310,19 +305,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -656,399 +650,395 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="27" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="5" style="23" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="18" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="I1" s="25" t="s">
+    <row r="1" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="I1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>7</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>9</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>10</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>7</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>9</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>10</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F5:K5"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H18:K18"/>
@@ -1061,6 +1051,13 @@
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.51181102362204722" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
